--- a/tests/test_order_framework.xlsx
+++ b/tests/test_order_framework.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romesh.abeysuriya/projects/atomica/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42B3A4E-CF81-48A8-B1D0-12537512E361}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF3395-49D4-264F-8C66-E6759326ECBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7740" yWindow="2400" windowWidth="28065" windowHeight="17190" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7740" yWindow="2400" windowWidth="28060" windowHeight="17200" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1394,9 +1400,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1434,9 +1440,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1469,26 +1475,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1521,26 +1510,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1720,9 +1692,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1751,13 +1723,13 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1765,7 +1737,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>132</v>
       </c>
@@ -1773,7 +1745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>133</v>
       </c>
@@ -1781,7 +1753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>134</v>
       </c>
@@ -1789,7 +1761,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -1811,12 +1783,12 @@
       <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1824,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -1832,7 +1804,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1840,7 +1812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -1848,7 +1820,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -1856,27 +1828,27 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1899,15 +1871,15 @@
       <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="7" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="7" width="15.6640625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -1939,7 +1911,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -1967,7 +1939,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
@@ -1990,7 +1962,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -2013,7 +1985,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2008,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2047,7 +2019,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
@@ -2064,7 +2036,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>77</v>
       </c>
@@ -2081,7 +2053,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>79</v>
       </c>
@@ -2098,7 +2070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2109,7 +2081,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2120,7 +2092,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2131,7 +2103,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2142,7 +2114,7 @@
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2153,7 +2125,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2164,7 +2136,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2175,7 +2147,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2186,7 +2158,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2197,7 +2169,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2232,13 +2204,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -2246,7 +2218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -2254,7 +2226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -2262,7 +2234,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -2284,16 +2256,16 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="9" t="str">
         <f>Compartments!A2</f>
@@ -2313,7 +2285,7 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -2328,7 +2300,7 @@
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="str">
         <f>Compartments!A3</f>
         <v>inf</v>
@@ -2343,7 +2315,7 @@
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="str">
         <f>Compartments!A4</f>
         <v>rec</v>
@@ -2356,7 +2328,7 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="str">
         <f>Compartments!A5</f>
         <v>dead</v>
@@ -2367,7 +2339,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2375,7 +2347,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>83</v>
       </c>
@@ -2391,7 +2363,7 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>75</v>
       </c>
@@ -2403,7 +2375,7 @@
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>77</v>
       </c>
@@ -2415,7 +2387,7 @@
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>79</v>
       </c>
@@ -2427,7 +2399,7 @@
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2435,7 +2407,7 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2443,7 +2415,7 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2451,7 +2423,7 @@
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2459,7 +2431,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2467,7 +2439,7 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2475,7 +2447,7 @@
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2483,7 +2455,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2491,7 +2463,7 @@
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -2499,7 +2471,7 @@
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2507,7 +2479,7 @@
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2515,7 +2487,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2523,7 +2495,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2531,7 +2503,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2539,7 +2511,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2561,16 +2533,16 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2587,7 +2559,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>116</v>
       </c>
@@ -2604,7 +2576,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>117</v>
       </c>
@@ -2621,31 +2593,31 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
     </row>
@@ -2663,19 +2635,19 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -2704,7 +2676,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>35</v>
       </c>
@@ -2725,7 +2697,7 @@
       </c>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -2748,7 +2720,7 @@
       </c>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -2765,7 +2737,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -2782,7 +2754,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2799,7 +2771,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>49</v>
       </c>
@@ -2818,7 +2790,7 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>51</v>
       </c>
@@ -2837,7 +2809,7 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>53</v>
       </c>
@@ -2856,7 +2828,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2867,7 +2839,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>88</v>
       </c>
@@ -2890,7 +2862,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
@@ -2913,7 +2885,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>95</v>
       </c>
@@ -2936,7 +2908,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2947,7 +2919,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2958,7 +2930,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2969,7 +2941,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2980,7 +2952,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2991,7 +2963,7 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3002,7 +2974,7 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3013,7 +2985,7 @@
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3024,7 +2996,7 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3035,7 +3007,7 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3046,7 +3018,7 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3057,7 +3029,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3068,7 +3040,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3079,7 +3051,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3090,7 +3062,7 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3101,7 +3073,7 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3112,7 +3084,7 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3123,7 +3095,7 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3134,7 +3106,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3166,23 +3138,23 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.6640625" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
@@ -3217,7 +3189,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>58</v>
       </c>
@@ -3244,7 +3216,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>61</v>
       </c>
@@ -3268,7 +3240,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>30</v>
       </c>
@@ -3295,7 +3267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>65</v>
       </c>
@@ -3322,7 +3294,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>29</v>
       </c>
@@ -3349,7 +3321,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
@@ -3371,10 +3343,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>73</v>
       </c>
@@ -3391,7 +3363,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>97</v>
       </c>
@@ -3419,7 +3391,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>85</v>
       </c>
@@ -3433,9 +3405,7 @@
       <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
-        <v>1</v>
-      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
         <v>27</v>
       </c>
@@ -3446,7 +3416,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>104</v>
       </c>
@@ -3474,7 +3444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -3488,9 +3458,7 @@
       <c r="E13" s="2">
         <v>0</v>
       </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
         <v>27</v>
       </c>
@@ -3501,7 +3469,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>108</v>
       </c>
@@ -3529,7 +3497,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>87</v>
       </c>
@@ -3542,9 +3510,7 @@
       <c r="E15" s="2">
         <v>0</v>
       </c>
-      <c r="F15" s="2">
-        <v>1</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
         <v>27</v>
       </c>
@@ -3555,7 +3521,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>138</v>
       </c>
@@ -3572,10 +3538,10 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>127</v>
       </c>
@@ -3624,13 +3590,13 @@
       <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>129</v>
       </c>
@@ -3639,7 +3605,7 @@
       </c>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -3648,7 +3614,7 @@
       </c>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -3657,7 +3623,7 @@
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -3666,12 +3632,12 @@
       </c>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
@@ -3680,7 +3646,7 @@
       </c>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>89</v>
       </c>
@@ -3689,7 +3655,7 @@
       </c>
       <c r="C7" s="3"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>93</v>
       </c>
@@ -3698,7 +3664,7 @@
       </c>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>96</v>
       </c>
@@ -3707,22 +3673,22 @@
       </c>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
